--- a/examples/web-stuff/artifact/script/web-expression.xlsx
+++ b/examples/web-stuff/artifact/script/web-expression.xlsx
@@ -46,9 +46,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13206" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13780" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1810,13 +1810,40 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="380" x14ac:knownFonts="1">
+  <fonts count="396" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4223,8 +4250,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="649">
+  <fills count="676">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7898,8 +8026,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="707">
+  <borders count="739">
     <border>
       <left/>
       <right/>
@@ -10015,6 +10296,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15090,7 +15697,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="422">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16279,52 +16886,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="624" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="624" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="627" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="627" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="630" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="630" fontId="367" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="633" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="633" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="369" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="639" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="639" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="630" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="630" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="642" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="642" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="642" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="642" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="645" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="633" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="651" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="654" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="657" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="660" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="666" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="657" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="669" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="669" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16649,7 +17304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17081,7 +17736,7 @@
         <v>172</v>
       </c>
       <c r="AB5" t="s">
-        <v>177</v>
+        <v>583</v>
       </c>
       <c r="AC5" t="s">
         <v>183</v>
@@ -17152,7 +17807,7 @@
         <v>443</v>
       </c>
       <c r="AB6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC6" t="s">
         <v>184</v>
@@ -17214,7 +17869,7 @@
         <v>444</v>
       </c>
       <c r="AB7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC7" t="s">
         <v>185</v>
@@ -17270,7 +17925,7 @@
         <v>173</v>
       </c>
       <c r="AB8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC8" t="s">
         <v>186</v>
@@ -17322,6 +17977,9 @@
       <c r="Z9" t="s">
         <v>207</v>
       </c>
+      <c r="AB9" t="s">
+        <v>180</v>
+      </c>
       <c r="AC9" t="s">
         <v>187</v>
       </c>
@@ -17363,6 +18021,9 @@
       <c r="Z10" t="s">
         <v>255</v>
       </c>
+      <c r="AB10" t="s">
+        <v>584</v>
+      </c>
       <c r="AC10" t="s">
         <v>188</v>
       </c>
@@ -17539,7 +18200,7 @@
         <v>249</v>
       </c>
       <c r="Z15" t="s">
-        <v>103</v>
+        <v>576</v>
       </c>
       <c r="AC15" t="s">
         <v>192</v>
@@ -17571,7 +18232,7 @@
         <v>250</v>
       </c>
       <c r="Z16" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AC16" t="s">
         <v>193</v>
@@ -17597,7 +18258,7 @@
         <v>39</v>
       </c>
       <c r="Z17" t="s">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s">
         <v>465</v>
@@ -17623,7 +18284,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>104</v>
+        <v>491</v>
       </c>
       <c r="AE18" t="s">
         <v>473</v>
@@ -17643,7 +18304,7 @@
         <v>461</v>
       </c>
       <c r="Z19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>502</v>
@@ -17663,7 +18324,7 @@
         <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE20" t="s">
         <v>503</v>
@@ -17683,7 +18344,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
         <v>504</v>
@@ -17703,7 +18364,7 @@
         <v>569</v>
       </c>
       <c r="Z22" t="s">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="AE22" t="s">
         <v>233</v>
@@ -17723,7 +18384,7 @@
         <v>468</v>
       </c>
       <c r="Z23" t="s">
-        <v>108</v>
+        <v>492</v>
       </c>
       <c r="AE23" t="s">
         <v>547</v>
@@ -17743,7 +18404,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>556</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s">
         <v>548</v>
@@ -17763,7 +18424,7 @@
         <v>390</v>
       </c>
       <c r="Z25" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="AE25" t="s">
         <v>549</v>
@@ -17783,7 +18444,7 @@
         <v>536</v>
       </c>
       <c r="Z26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE26" t="s">
         <v>234</v>
@@ -17803,7 +18464,7 @@
         <v>85</v>
       </c>
       <c r="Z27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE27" t="s">
         <v>235</v>
@@ -17823,7 +18484,7 @@
         <v>432</v>
       </c>
       <c r="Z28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -17840,7 +18501,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -17857,7 +18518,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -17871,7 +18532,7 @@
         <v>214</v>
       </c>
       <c r="Z31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -17882,7 +18543,7 @@
         <v>273</v>
       </c>
       <c r="Z32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -17893,7 +18554,7 @@
         <v>283</v>
       </c>
       <c r="Z33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -17904,7 +18565,7 @@
         <v>505</v>
       </c>
       <c r="Z34" t="s">
-        <v>557</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35">
@@ -17915,7 +18576,7 @@
         <v>258</v>
       </c>
       <c r="Z35" t="s">
-        <v>117</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36">
@@ -17926,7 +18587,7 @@
         <v>328</v>
       </c>
       <c r="Z36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
@@ -17937,7 +18598,7 @@
         <v>305</v>
       </c>
       <c r="Z37" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
@@ -17948,7 +18609,7 @@
         <v>259</v>
       </c>
       <c r="Z38" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39">
@@ -17959,7 +18620,7 @@
         <v>306</v>
       </c>
       <c r="Z39" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
@@ -17967,7 +18628,7 @@
         <v>265</v>
       </c>
       <c r="Z40" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41">
@@ -17975,7 +18636,7 @@
         <v>78</v>
       </c>
       <c r="Z41" t="s">
-        <v>567</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42">
@@ -17983,7 +18644,7 @@
         <v>210</v>
       </c>
       <c r="Z42" t="s">
-        <v>391</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43">
@@ -17991,7 +18652,7 @@
         <v>553</v>
       </c>
       <c r="Z43" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
@@ -17999,7 +18660,7 @@
         <v>287</v>
       </c>
       <c r="Z44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -18007,7 +18668,7 @@
         <v>298</v>
       </c>
       <c r="Z45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46">
@@ -18015,7 +18676,7 @@
         <v>299</v>
       </c>
       <c r="Z46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -18023,7 +18684,7 @@
         <v>341</v>
       </c>
       <c r="Z47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
@@ -18031,7 +18692,7 @@
         <v>340</v>
       </c>
       <c r="Z48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -18039,7 +18700,7 @@
         <v>209</v>
       </c>
       <c r="Z49" t="s">
-        <v>437</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -18047,7 +18708,7 @@
         <v>318</v>
       </c>
       <c r="Z50" t="s">
-        <v>211</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51">
@@ -18055,7 +18716,7 @@
         <v>337</v>
       </c>
       <c r="Z51" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52">
@@ -18063,7 +18724,7 @@
         <v>366</v>
       </c>
       <c r="Z52" t="s">
-        <v>543</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -18071,7 +18732,7 @@
         <v>300</v>
       </c>
       <c r="Z53" t="s">
-        <v>126</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54">
@@ -18079,7 +18740,7 @@
         <v>354</v>
       </c>
       <c r="Z54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -18087,7 +18748,7 @@
         <v>329</v>
       </c>
       <c r="Z55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
@@ -18095,7 +18756,7 @@
         <v>266</v>
       </c>
       <c r="Z56" t="s">
-        <v>493</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -18103,7 +18764,7 @@
         <v>290</v>
       </c>
       <c r="Z57" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
@@ -18111,7 +18772,7 @@
         <v>291</v>
       </c>
       <c r="Z58" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
@@ -18119,7 +18780,7 @@
         <v>554</v>
       </c>
       <c r="Z59" t="s">
-        <v>344</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -18127,7 +18788,7 @@
         <v>292</v>
       </c>
       <c r="Z60" t="s">
-        <v>463</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61">
@@ -18135,7 +18796,7 @@
         <v>301</v>
       </c>
       <c r="Z61" t="s">
-        <v>130</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
@@ -18143,7 +18804,7 @@
         <v>310</v>
       </c>
       <c r="Z62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63">
@@ -18151,7 +18812,7 @@
         <v>335</v>
       </c>
       <c r="Z63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -18159,7 +18820,7 @@
         <v>307</v>
       </c>
       <c r="Z64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -18167,7 +18828,7 @@
         <v>308</v>
       </c>
       <c r="Z65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -18175,7 +18836,7 @@
         <v>367</v>
       </c>
       <c r="Z66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -18183,7 +18844,7 @@
         <v>368</v>
       </c>
       <c r="Z67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -18191,7 +18852,7 @@
         <v>343</v>
       </c>
       <c r="Z68" t="s">
-        <v>438</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69">
@@ -18199,7 +18860,7 @@
         <v>311</v>
       </c>
       <c r="Z69" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70">
@@ -18207,7 +18868,7 @@
         <v>267</v>
       </c>
       <c r="Z70" t="s">
-        <v>212</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71">
@@ -18215,7 +18876,7 @@
         <v>537</v>
       </c>
       <c r="Z71" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -18223,7 +18884,7 @@
         <v>312</v>
       </c>
       <c r="Z72" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73">
@@ -18231,7 +18892,7 @@
         <v>408</v>
       </c>
       <c r="Z73" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
@@ -18239,7 +18900,7 @@
         <v>302</v>
       </c>
       <c r="Z74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -18247,7 +18908,7 @@
         <v>409</v>
       </c>
       <c r="Z75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -18255,7 +18916,7 @@
         <v>260</v>
       </c>
       <c r="Z76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -18263,7 +18924,7 @@
         <v>506</v>
       </c>
       <c r="Z77" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
@@ -18271,7 +18932,7 @@
         <v>342</v>
       </c>
       <c r="Z78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -18279,7 +18940,7 @@
         <v>278</v>
       </c>
       <c r="Z79" t="s">
-        <v>451</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80">
@@ -18287,7 +18948,7 @@
         <v>284</v>
       </c>
       <c r="Z80" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81">
@@ -18295,7 +18956,7 @@
         <v>289</v>
       </c>
       <c r="Z81" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82">
@@ -18303,7 +18964,7 @@
         <v>427</v>
       </c>
       <c r="Z82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83">
@@ -18311,7 +18972,7 @@
         <v>330</v>
       </c>
       <c r="Z83" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84">
@@ -18319,7 +18980,7 @@
         <v>268</v>
       </c>
       <c r="Z84" t="s">
-        <v>494</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85">
@@ -18327,7 +18988,7 @@
         <v>279</v>
       </c>
       <c r="Z85" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86">
@@ -18335,7 +18996,7 @@
         <v>285</v>
       </c>
       <c r="Z86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
@@ -18343,7 +19004,7 @@
         <v>274</v>
       </c>
       <c r="Z87" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
@@ -18351,7 +19012,7 @@
         <v>538</v>
       </c>
       <c r="Z88" t="s">
-        <v>495</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -18359,7 +19020,7 @@
         <v>269</v>
       </c>
       <c r="Z89" t="s">
-        <v>198</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90">
@@ -18367,7 +19028,7 @@
         <v>286</v>
       </c>
       <c r="Z90" t="s">
-        <v>452</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91">
@@ -18375,7 +19036,7 @@
         <v>270</v>
       </c>
       <c r="Z91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92">
@@ -18383,7 +19044,7 @@
         <v>271</v>
       </c>
       <c r="Z92" t="s">
-        <v>200</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93">
@@ -18391,7 +19052,7 @@
         <v>303</v>
       </c>
       <c r="Z93" t="s">
-        <v>560</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -18399,7 +19060,7 @@
         <v>309</v>
       </c>
       <c r="Z94" t="s">
-        <v>561</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -18407,7 +19068,7 @@
         <v>293</v>
       </c>
       <c r="Z95" t="s">
-        <v>213</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96">
@@ -18415,7 +19076,7 @@
         <v>338</v>
       </c>
       <c r="Z96" t="s">
-        <v>146</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97">
@@ -18423,7 +19084,7 @@
         <v>275</v>
       </c>
       <c r="Z97" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -18431,201 +19092,236 @@
         <v>276</v>
       </c>
       <c r="Z98" t="s">
-        <v>440</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>574</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>575</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>441</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>496</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>516</v>
+        <v>206</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>147</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>442</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>166</v>
+        <v>558</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/examples/web-stuff/artifact/script/web-expression.xlsx
+++ b/examples/web-stuff/artifact/script/web-expression.xlsx
@@ -25,9 +25,9 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -38,7 +38,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13780" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14358" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1837,13 +1837,28 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="396" x14ac:knownFonts="1">
+  <fonts count="412" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4351,8 +4366,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="676">
+  <fills count="703">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8179,8 +8295,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="739">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -10296,6 +10565,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15697,7 +16292,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="438">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16934,52 +17529,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="651" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="651" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="654" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="654" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="657" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="657" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="660" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="660" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="385" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="386" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="666" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="666" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="657" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="657" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="669" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="669" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="669" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="669" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="660" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="678" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="681" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="684" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="687" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="693" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="684" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="696" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="696" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17442,7 +18085,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>459</v>
+        <v>587</v>
       </c>
       <c r="L2" t="s">
         <v>313</v>
@@ -17774,7 +18417,7 @@
         <v>573</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>588</v>
       </c>
       <c r="L6" t="s">
         <v>460</v>
@@ -17836,7 +18479,7 @@
         <v>445</v>
       </c>
       <c r="K7" t="s">
-        <v>540</v>
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -17897,6 +18540,9 @@
       <c r="I8" t="s">
         <v>326</v>
       </c>
+      <c r="K8" t="s">
+        <v>540</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -17998,7 +18644,7 @@
         <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -18042,7 +18688,7 @@
         <v>350</v>
       </c>
       <c r="I11" t="s">
-        <v>320</v>
+        <v>586</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -18080,7 +18726,7 @@
         <v>272</v>
       </c>
       <c r="I12" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
       <c r="L12" t="s">
         <v>484</v>
@@ -18118,7 +18764,7 @@
         <v>261</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>388</v>
@@ -18130,7 +18776,7 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>589</v>
       </c>
       <c r="Z13" t="s">
         <v>324</v>
@@ -18153,7 +18799,7 @@
         <v>314</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -18165,7 +18811,7 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -18187,6 +18833,9 @@
       <c r="H15" t="s">
         <v>262</v>
       </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -18197,7 +18846,7 @@
         <v>489</v>
       </c>
       <c r="S15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z15" t="s">
         <v>576</v>
@@ -18219,6 +18868,9 @@
       <c r="H16" t="s">
         <v>263</v>
       </c>
+      <c r="I16" t="s">
+        <v>323</v>
+      </c>
       <c r="L16" t="s">
         <v>485</v>
       </c>
@@ -18229,7 +18881,7 @@
         <v>490</v>
       </c>
       <c r="S16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z16" t="s">
         <v>103</v>
@@ -18256,6 +18908,9 @@
       </c>
       <c r="N17" t="s">
         <v>39</v>
+      </c>
+      <c r="S17" t="s">
+        <v>250</v>
       </c>
       <c r="Z17" t="s">
         <v>75</v>
